--- a/Carte des rendus pour évaluation.xlsx
+++ b/Carte des rendus pour évaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fayss\Desktop\IA-ID\systemes_intelligent_autonomes\Intelligent-Autonomous-Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779FC1E6-90AE-4E15-B93F-870F648754B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1782019B-F7A6-4045-A5A9-D4482C16C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{21C99227-F809-47B6-ABC9-87988D658BE4}"/>
   </bookViews>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3159F09D-AEDA-4CAC-B28E-CED886A774B6}">
   <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
